--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6900 Patrimonio/6901 - Auditoria de Patrimonio.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6900 Patrimonio/6901 - Auditoria de Patrimonio.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -95,6 +95,9 @@
   </si>
   <si>
     <t xml:space="preserve">Créditos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NUEVO</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
@@ -679,7 +682,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="93">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -852,6 +855,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="170" fontId="21" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="170" fontId="21" fillId="10" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -876,8 +895,12 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1126,20 +1149,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="10.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1155,14 +1179,14 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2"/>
+      <c r="J1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="K1" s="4" t="n">
         <v>6901</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="AMG1" s="0"/>
+      <c r="L1" s="4"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -1180,14 +1204,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="2"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="AMG2" s="0"/>
+      <c r="L2" s="6"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1205,14 +1229,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2"/>
+      <c r="J3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="7" t="n">
+      <c r="K3" s="7" t="n">
         <v>44134</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="AMG3" s="0"/>
+      <c r="L3" s="7"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -1230,14 +1254,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2"/>
+      <c r="J4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="6"/>
-      <c r="AMG4" s="0"/>
+      <c r="L4" s="6"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
@@ -1255,18 +1279,17 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="AMG5" s="0"/>
+      <c r="L5" s="8"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
@@ -1291,19 +1314,21 @@
       <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="L7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
@@ -1324,15 +1349,17 @@
       <c r="G8" s="15" t="n">
         <v>44196</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="14" t="n">
+      <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14" t="n">
         <v>43830</v>
       </c>
-      <c r="K8" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="AMG8" s="0"/>
+      <c r="L8" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
@@ -1345,11 +1372,11 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="26"/>
-      <c r="AMG9" s="0"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
@@ -1357,30 +1384,30 @@
     <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="18"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="26"/>
-      <c r="AMG10" s="0"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="18"/>
+      <c r="L10" s="26"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="18" t="n">
@@ -1396,20 +1423,22 @@
         <f aca="false">D11-E11+F11</f>
         <v>20000</v>
       </c>
-      <c r="H11" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="33" t="s">
+      <c r="H11" s="31" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I11" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="18" t="n">
+      <c r="J11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="18" t="n">
         <v>20000</v>
       </c>
-      <c r="K11" s="34" t="n">
-        <f aca="false">G11-J11</f>
-        <v>0</v>
-      </c>
-      <c r="AMG11" s="0"/>
+      <c r="L11" s="34" t="n">
+        <f aca="false">G11-K11</f>
+        <v>0</v>
+      </c>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
@@ -1431,16 +1460,18 @@
         <f aca="false">D12-E12+F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="35"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" s="34" t="n">
-        <f aca="false">G12-J12</f>
-        <v>0</v>
-      </c>
-      <c r="AMG12" s="0"/>
+      <c r="H12" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" s="35"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <f aca="false">G12-K12</f>
+        <v>0</v>
+      </c>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
@@ -1448,7 +1479,7 @@
     <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33"/>
       <c r="B13" s="28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="18" t="n">
@@ -1464,28 +1495,30 @@
         <f aca="false">D13-E13+F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" s="34" t="n">
-        <f aca="false">G13-J13</f>
-        <v>0</v>
-      </c>
-      <c r="AMG13" s="0"/>
+      <c r="H13" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="33"/>
+      <c r="J13" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" s="34" t="n">
+        <f aca="false">G13-K13</f>
+        <v>0</v>
+      </c>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="18" t="n">
@@ -1501,30 +1534,32 @@
         <f aca="false">D14-E14+F14</f>
         <v>10000</v>
       </c>
-      <c r="H14" s="33" t="s">
-        <v>30</v>
+      <c r="H14" s="31" t="n">
+        <v>10000</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="18" t="n">
+      <c r="J14" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="18" t="n">
         <v>10000</v>
       </c>
-      <c r="K14" s="34" t="n">
-        <f aca="false">G14-J14</f>
-        <v>0</v>
-      </c>
-      <c r="AMG14" s="0"/>
+      <c r="L14" s="34" t="n">
+        <f aca="false">G14-K14</f>
+        <v>0</v>
+      </c>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B15" s="33" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="18" t="n">
@@ -1540,20 +1575,22 @@
         <f aca="false">D15-E15+F15</f>
         <v>540000</v>
       </c>
-      <c r="H15" s="33" t="s">
-        <v>32</v>
+      <c r="H15" s="31" t="n">
+        <v>540000</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="36" t="n">
+      <c r="J15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15" s="36" t="n">
         <v>540000</v>
       </c>
-      <c r="K15" s="34" t="n">
-        <f aca="false">G15-J15</f>
-        <v>0</v>
-      </c>
-      <c r="AMG15" s="0"/>
+      <c r="L15" s="34" t="n">
+        <f aca="false">G15-K15</f>
+        <v>0</v>
+      </c>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
@@ -1575,16 +1612,18 @@
         <f aca="false">D16-E16+F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="33"/>
+      <c r="H16" s="31" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" s="33"/>
-      <c r="J16" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" s="34" t="n">
-        <f aca="false">G16-J16</f>
-        <v>0</v>
-      </c>
-      <c r="AMG16" s="0"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" s="34" t="n">
+        <f aca="false">G16-K16</f>
+        <v>0</v>
+      </c>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
@@ -1592,7 +1631,7 @@
     <row r="17" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="40" t="n">
@@ -1608,28 +1647,30 @@
         <f aca="false">D17-E17+F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="J17" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="34" t="n">
-        <f aca="false">G17-J17</f>
-        <v>0</v>
-      </c>
-      <c r="AMG17" s="0"/>
+      <c r="H17" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" s="39"/>
+      <c r="J17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34" t="n">
+        <f aca="false">G17-K17</f>
+        <v>0</v>
+      </c>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="40" t="n">
@@ -1645,59 +1686,63 @@
         <f aca="false">D18-E18+F18</f>
         <v>38680.53</v>
       </c>
-      <c r="H18" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" s="42" t="s">
+      <c r="H18" s="31" t="n">
+        <v>38680.53</v>
+      </c>
+      <c r="I18" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="34" t="n">
-        <f aca="false">G18-J18</f>
+      <c r="J18" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="34" t="n">
+        <f aca="false">G18-K18</f>
         <v>38680.53</v>
       </c>
-      <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C19" s="42"/>
       <c r="D19" s="43" t="n">
         <v>7431</v>
       </c>
-      <c r="E19" s="29" t="n">
+      <c r="E19" s="44" t="n">
         <v>5399.42</v>
       </c>
-      <c r="F19" s="30" t="n">
+      <c r="F19" s="45" t="n">
         <v>2005</v>
       </c>
-      <c r="G19" s="31" t="n">
+      <c r="G19" s="46" t="n">
         <f aca="false">D19-E19+F19</f>
         <v>4036.58</v>
       </c>
-      <c r="H19" s="39" t="s">
-        <v>37</v>
-      </c>
-      <c r="I19" s="42" t="s">
+      <c r="H19" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="41" t="n">
+      <c r="J19" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="41" t="n">
         <v>7431</v>
       </c>
-      <c r="K19" s="34" t="n">
-        <f aca="false">G19-J19</f>
+      <c r="L19" s="34" t="n">
+        <f aca="false">G19-K19</f>
         <v>-3394.42</v>
       </c>
-      <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
@@ -1706,7 +1751,7 @@
       <c r="A20" s="39"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="43" t="n">
+      <c r="D20" s="47" t="n">
         <v>0</v>
       </c>
       <c r="E20" s="29" t="n">
@@ -1719,16 +1764,18 @@
         <f aca="false">D20-E20+F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="34" t="n">
-        <f aca="false">G20-J20</f>
-        <v>0</v>
-      </c>
-      <c r="AMG20" s="0"/>
+      <c r="H20" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="39"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="34" t="n">
+        <f aca="false">G20-K20</f>
+        <v>0</v>
+      </c>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
@@ -1736,10 +1783,10 @@
     <row r="21" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
       <c r="B21" s="28" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C21" s="28"/>
-      <c r="D21" s="43" t="n">
+      <c r="D21" s="47" t="n">
         <v>0</v>
       </c>
       <c r="E21" s="29" t="n">
@@ -1752,30 +1799,32 @@
         <f aca="false">D21-E21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="J21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" s="34" t="n">
-        <f aca="false">G21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="AMG21" s="0"/>
+      <c r="H21" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="39"/>
+      <c r="J21" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="K21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34" t="n">
+        <f aca="false">G21-K21</f>
+        <v>0</v>
+      </c>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="44"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="29" t="n">
         <v>-118511</v>
       </c>
@@ -1789,67 +1838,71 @@
         <f aca="false">D22-E22+F22</f>
         <v>-118511</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="31" t="n">
+        <v>-118511</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="J22" s="18" t="n">
+      <c r="K22" s="18" t="n">
         <v>-118511</v>
       </c>
-      <c r="K22" s="34" t="n">
-        <f aca="false">G22-J22</f>
-        <v>0</v>
-      </c>
-      <c r="AMG22" s="0"/>
+      <c r="L22" s="34" t="n">
+        <f aca="false">G22-K22</f>
+        <v>0</v>
+      </c>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="45"/>
+      <c r="B23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="49"/>
       <c r="D23" s="43" t="n">
-        <f aca="false">J23+J26</f>
+        <f aca="false">K23+K26</f>
         <v>-76367</v>
       </c>
-      <c r="E23" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="31" t="n">
+      <c r="E23" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="46" t="n">
         <f aca="false">D23-E23+F23</f>
         <v>-76367</v>
       </c>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="18" t="n">
+      <c r="H23" s="46" t="n">
+        <v>-72365</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="K23" s="18" t="n">
         <f aca="false">-84051+5140-380</f>
         <v>-79291</v>
       </c>
-      <c r="K23" s="34" t="n">
-        <f aca="false">G23-J23</f>
+      <c r="L23" s="34" t="n">
+        <f aca="false">G23-K23</f>
         <v>2924</v>
       </c>
-      <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="49"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="29" t="n">
         <v>0</v>
       </c>
@@ -1863,27 +1916,29 @@
         <f aca="false">D24-E24+F24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" s="34" t="n">
-        <f aca="false">G24-J24</f>
-        <v>0</v>
-      </c>
-      <c r="AMG24" s="0"/>
+      <c r="H24" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="34" t="n">
+        <f aca="false">G24-K24</f>
+        <v>0</v>
+      </c>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="47"/>
+      <c r="A25" s="51"/>
       <c r="B25" s="28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C25" s="28"/>
-      <c r="D25" s="48" t="n">
+      <c r="D25" s="52" t="n">
         <v>0</v>
       </c>
       <c r="E25" s="29" t="n">
@@ -1896,64 +1951,67 @@
         <f aca="false">D25-E25+F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="33"/>
-      <c r="I25" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" s="34" t="n">
-        <f aca="false">G25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="AMG25" s="0"/>
+      <c r="H25" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="K25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="34" t="n">
+        <f aca="false">G25-K25</f>
+        <v>0</v>
+      </c>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="B26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="31" t="n">
-        <f aca="false">D26-E26+F26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="33" t="s">
+      <c r="C26" s="54"/>
+      <c r="D26" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="46" t="n">
+        <v>-5184.41</v>
+      </c>
+      <c r="I26" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="J26" s="18" t="n">
+      <c r="K26" s="18" t="n">
         <v>2924</v>
       </c>
-      <c r="K26" s="34" t="n">
-        <f aca="false">G26-J26</f>
+      <c r="L26" s="34" t="n">
+        <f aca="false">G26-K26</f>
         <v>-2924</v>
       </c>
-      <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="56"/>
       <c r="C27" s="18"/>
       <c r="D27" s="31" t="n">
         <v>0</v>
@@ -1964,255 +2022,251 @@
       <c r="F27" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="52" t="n">
+      <c r="G27" s="57" t="n">
         <f aca="false">D27+E27-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="53"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" s="34" t="n">
-        <f aca="false">G27-J27</f>
-        <v>0</v>
-      </c>
-      <c r="AMG27" s="0"/>
+      <c r="H27" s="57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="58"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="34" t="n">
+        <f aca="false">G27-K27</f>
+        <v>0</v>
+      </c>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="60" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="55"/>
-      <c r="B28" s="56" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57" t="n">
+    <row r="28" s="65" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="60"/>
+      <c r="B28" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="61"/>
+      <c r="D28" s="62" t="n">
         <f aca="false">SUM(D9:D26)</f>
         <v>382553</v>
       </c>
-      <c r="E28" s="57" t="n">
+      <c r="E28" s="62" t="n">
         <f aca="false">SUM(E9:E26)</f>
         <v>5399.42</v>
       </c>
-      <c r="F28" s="57" t="n">
+      <c r="F28" s="62" t="n">
         <f aca="false">SUM(F9:F26)</f>
         <v>40685.53</v>
       </c>
-      <c r="G28" s="58" t="n">
+      <c r="G28" s="63" t="n">
         <f aca="false">SUM(G9:G26)</f>
         <v>417839.11</v>
       </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="57" t="n">
-        <f aca="false">SUM(J9:J26)</f>
+      <c r="H28" s="63" t="n">
+        <f aca="false">SUM(H9:H26)</f>
+        <v>412620.12</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="62" t="n">
+        <f aca="false">SUM(K9:K26)</f>
         <v>382553</v>
       </c>
-      <c r="K28" s="59" t="n">
-        <f aca="false">SUM(K9:K27)</f>
+      <c r="L28" s="64" t="n">
+        <f aca="false">SUM(L9:L27)</f>
         <v>35286.11</v>
       </c>
-      <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="E30" s="63" t="s">
-        <v>46</v>
+      <c r="B30" s="66"/>
+      <c r="C30" s="66"/>
+      <c r="D30" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" s="68" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="65"/>
-      <c r="D31" s="66" t="n">
+      <c r="B31" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71" t="n">
         <v>44196</v>
       </c>
-      <c r="E31" s="66" t="n">
+      <c r="E31" s="71" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="67"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
-      <c r="E32" s="70"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="75"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="71" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="73" t="n">
+      <c r="B33" s="76" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="77"/>
+      <c r="D33" s="78" t="n">
         <f aca="false">SUM(G11:G13)</f>
         <v>20000</v>
       </c>
-      <c r="E33" s="73" t="n">
-        <f aca="false">SUM(J11:J13)</f>
+      <c r="E33" s="78" t="n">
+        <f aca="false">SUM(K11:K13)</f>
         <v>20000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C34" s="72"/>
-      <c r="D34" s="73" t="n">
+      <c r="B34" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="77"/>
+      <c r="D34" s="78" t="n">
         <f aca="false">SUM(G14:G16)</f>
         <v>550000</v>
       </c>
-      <c r="E34" s="73" t="n">
-        <f aca="false">SUM(J14:J16)</f>
+      <c r="E34" s="78" t="n">
+        <f aca="false">SUM(K14:K16)</f>
         <v>550000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="72"/>
-      <c r="D35" s="73" t="n">
+      <c r="B35" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78" t="n">
         <f aca="false">SUM(G17:G24)</f>
         <v>-152160.89</v>
       </c>
-      <c r="E35" s="73" t="n">
-        <f aca="false">SUM(J17:J24)</f>
+      <c r="E35" s="78" t="n">
+        <f aca="false">SUM(K17:K24)</f>
         <v>-190371</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="72"/>
-      <c r="D36" s="73" t="n">
+      <c r="B36" s="76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="77"/>
+      <c r="D36" s="78" t="n">
         <f aca="false">G26</f>
         <v>0</v>
       </c>
-      <c r="E36" s="73" t="n">
-        <f aca="false">J26</f>
+      <c r="E36" s="78" t="n">
+        <f aca="false">K26</f>
         <v>2924</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="82"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="78" t="n">
+      <c r="B38" s="70" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="70"/>
+      <c r="D38" s="83" t="n">
         <f aca="false">+SUM(D33:D36)</f>
         <v>417839.11</v>
       </c>
-      <c r="E38" s="79" t="n">
+      <c r="E38" s="84" t="n">
         <f aca="false">+SUM(E33:E36)</f>
         <v>382553</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="80" t="s">
-        <v>49</v>
-      </c>
-      <c r="B40" s="81"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="81"/>
-      <c r="H40" s="81"/>
-      <c r="I40" s="82"/>
-      <c r="J40" s="83"/>
-      <c r="K40" s="83"/>
+      <c r="A40" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="86"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
+      <c r="J40" s="87"/>
+      <c r="K40" s="88"/>
+      <c r="L40" s="88"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="I41" s="85"/>
+      <c r="A41" s="89" t="s">
+        <v>51</v>
+      </c>
+      <c r="J41" s="90"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="84"/>
-      <c r="I42" s="85"/>
+      <c r="A42" s="89"/>
+      <c r="J42" s="90"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="I43" s="85"/>
+      <c r="A43" s="91" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="90"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="I44" s="85"/>
+      <c r="A44" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="J44" s="90"/>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="84" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="85"/>
+      <c r="A45" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="J45" s="90"/>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="84"/>
-      <c r="I46" s="85"/>
+      <c r="A46" s="89"/>
+      <c r="J46" s="90"/>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="84"/>
-      <c r="I47" s="85"/>
+      <c r="A47" s="89"/>
+      <c r="J47" s="90"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="85"/>
+      <c r="A48" s="91" t="s">
+        <v>55</v>
+      </c>
+      <c r="J48" s="90"/>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A50" s="92" t="s">
+        <v>56</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="J1:K1"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="B4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>

--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6900 Patrimonio/6901 - Auditoria de Patrimonio.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6900 Patrimonio/6901 - Auditoria de Patrimonio.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t xml:space="preserve">Cliente:</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">Créditos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUEVO</t>
   </si>
   <si>
     <t xml:space="preserve">Valor</t>
@@ -391,7 +388,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -450,12 +447,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -682,7 +673,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="95">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -851,31 +842,47 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="17" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="21" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="170" fontId="21" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="170" fontId="21" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="8" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="17" fillId="11" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="170" fontId="21" fillId="10" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="10" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,23 +890,15 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="172" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="172" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="17" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="21" fillId="0" borderId="7" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="11" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1151,19 +1150,18 @@
   </sheetPr>
   <dimension ref="A1:AMJ50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H44" activeCellId="0" sqref="H44"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="26.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="34.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="0" width="9.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="34.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="9.37"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,14 +1177,14 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="J1" s="4" t="n">
         <v>6901</v>
       </c>
-      <c r="L1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="AMG1" s="0"/>
       <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
@@ -1204,14 +1202,14 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="AMG2" s="0"/>
       <c r="AMH2" s="0"/>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
@@ -1229,14 +1227,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="7" t="n">
+      <c r="J3" s="7" t="n">
         <v>44134</v>
       </c>
-      <c r="L3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="AMG3" s="0"/>
       <c r="AMH3" s="0"/>
       <c r="AMI3" s="0"/>
       <c r="AMJ3" s="0"/>
@@ -1254,14 +1252,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="AMG4" s="0"/>
       <c r="AMH4" s="0"/>
       <c r="AMI4" s="0"/>
       <c r="AMJ4" s="0"/>
@@ -1279,17 +1277,18 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="J5" s="8"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="AMG5" s="0"/>
       <c r="AMH5" s="0"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="9" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMG6" s="0"/>
       <c r="AMH6" s="0"/>
       <c r="AMI6" s="0"/>
       <c r="AMJ6" s="0"/>
@@ -1314,21 +1313,19 @@
       <c r="G7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="L7" s="11" t="s">
+      <c r="K7" s="11" t="s">
         <v>22</v>
       </c>
+      <c r="AMG7" s="0"/>
       <c r="AMH7" s="0"/>
       <c r="AMI7" s="0"/>
       <c r="AMJ7" s="0"/>
@@ -1349,17 +1346,15 @@
       <c r="G8" s="15" t="n">
         <v>44196</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="14" t="n">
+        <v>43830</v>
+      </c>
+      <c r="K8" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="14" t="n">
-        <v>43830</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>26</v>
-      </c>
+      <c r="AMG8" s="0"/>
       <c r="AMH8" s="0"/>
       <c r="AMI8" s="0"/>
       <c r="AMJ8" s="0"/>
@@ -1372,11 +1367,11 @@
       <c r="E9" s="20"/>
       <c r="F9" s="21"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="26"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="AMG9" s="0"/>
       <c r="AMH9" s="0"/>
       <c r="AMI9" s="0"/>
       <c r="AMJ9" s="0"/>
@@ -1384,30 +1379,30 @@
     <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="27"/>
       <c r="B10" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="28"/>
       <c r="D10" s="18"/>
       <c r="E10" s="29"/>
       <c r="F10" s="30"/>
       <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="18"/>
-      <c r="L10" s="26"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="26"/>
+      <c r="AMG10" s="0"/>
       <c r="AMH10" s="0"/>
       <c r="AMI10" s="0"/>
       <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>29</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="18" t="n">
@@ -1423,22 +1418,20 @@
         <f aca="false">D11-E11+F11</f>
         <v>20000</v>
       </c>
-      <c r="H11" s="31" t="n">
+      <c r="H11" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="18" t="n">
         <v>20000</v>
       </c>
-      <c r="I11" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="18" t="n">
-        <v>20000</v>
-      </c>
-      <c r="L11" s="34" t="n">
-        <f aca="false">G11-K11</f>
-        <v>0</v>
-      </c>
+      <c r="K11" s="34" t="n">
+        <f aca="false">G11-J11</f>
+        <v>0</v>
+      </c>
+      <c r="AMG11" s="0"/>
       <c r="AMH11" s="0"/>
       <c r="AMI11" s="0"/>
       <c r="AMJ11" s="0"/>
@@ -1460,18 +1453,16 @@
         <f aca="false">D12-E12+F12</f>
         <v>0</v>
       </c>
-      <c r="H12" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" s="35"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="34" t="n">
-        <f aca="false">G12-K12</f>
-        <v>0</v>
-      </c>
+      <c r="H12" s="35"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" s="34" t="n">
+        <f aca="false">G12-J12</f>
+        <v>0</v>
+      </c>
+      <c r="AMG12" s="0"/>
       <c r="AMH12" s="0"/>
       <c r="AMI12" s="0"/>
       <c r="AMJ12" s="0"/>
@@ -1479,7 +1470,7 @@
     <row r="13" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="33"/>
       <c r="B13" s="28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="18" t="n">
@@ -1495,30 +1486,28 @@
         <f aca="false">D13-E13+F13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" s="33"/>
-      <c r="J13" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34" t="n">
-        <f aca="false">G13-K13</f>
-        <v>0</v>
-      </c>
+      <c r="H13" s="33"/>
+      <c r="I13" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" s="36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" s="34" t="n">
+        <f aca="false">G13-J13</f>
+        <v>0</v>
+      </c>
+      <c r="AMG13" s="0"/>
       <c r="AMH13" s="0"/>
       <c r="AMI13" s="0"/>
       <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="33" t="s">
         <v>31</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>32</v>
       </c>
       <c r="C14" s="33"/>
       <c r="D14" s="18" t="n">
@@ -1534,32 +1523,30 @@
         <f aca="false">D14-E14+F14</f>
         <v>10000</v>
       </c>
-      <c r="H14" s="31" t="n">
-        <v>10000</v>
+      <c r="H14" s="33" t="s">
+        <v>30</v>
       </c>
       <c r="I14" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="J14" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" s="18" t="n">
+      <c r="J14" s="18" t="n">
         <v>10000</v>
       </c>
-      <c r="L14" s="34" t="n">
-        <f aca="false">G14-K14</f>
-        <v>0</v>
-      </c>
+      <c r="K14" s="34" t="n">
+        <f aca="false">G14-J14</f>
+        <v>0</v>
+      </c>
+      <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
       <c r="AMI14" s="0"/>
       <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="18" t="n">
@@ -1575,22 +1562,20 @@
         <f aca="false">D15-E15+F15</f>
         <v>540000</v>
       </c>
-      <c r="H15" s="31" t="n">
-        <v>540000</v>
+      <c r="H15" s="33" t="s">
+        <v>32</v>
       </c>
       <c r="I15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="J15" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="K15" s="36" t="n">
+      <c r="J15" s="36" t="n">
         <v>540000</v>
       </c>
-      <c r="L15" s="34" t="n">
-        <f aca="false">G15-K15</f>
-        <v>0</v>
-      </c>
+      <c r="K15" s="34" t="n">
+        <f aca="false">G15-J15</f>
+        <v>0</v>
+      </c>
+      <c r="AMG15" s="0"/>
       <c r="AMH15" s="0"/>
       <c r="AMI15" s="0"/>
       <c r="AMJ15" s="0"/>
@@ -1612,18 +1597,16 @@
         <f aca="false">D16-E16+F16</f>
         <v>0</v>
       </c>
-      <c r="H16" s="31" t="n">
-        <v>0</v>
-      </c>
+      <c r="H16" s="33"/>
       <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="34" t="n">
-        <f aca="false">G16-K16</f>
-        <v>0</v>
-      </c>
+      <c r="J16" s="38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" s="34" t="n">
+        <f aca="false">G16-J16</f>
+        <v>0</v>
+      </c>
+      <c r="AMG16" s="0"/>
       <c r="AMH16" s="0"/>
       <c r="AMI16" s="0"/>
       <c r="AMJ16" s="0"/>
@@ -1631,7 +1614,7 @@
     <row r="17" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="39"/>
       <c r="B17" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="40" t="n">
@@ -1647,102 +1630,96 @@
         <f aca="false">D17-E17+F17</f>
         <v>0</v>
       </c>
-      <c r="H17" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" s="39"/>
-      <c r="J17" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="34" t="n">
-        <f aca="false">G17-K17</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="39"/>
+      <c r="I17" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="34" t="n">
+        <f aca="false">G17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
       <c r="AMI17" s="0"/>
       <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" s="30" t="n">
+      <c r="C18" s="43"/>
+      <c r="D18" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="46" t="n">
         <v>38680.53</v>
       </c>
-      <c r="G18" s="31" t="n">
+      <c r="G18" s="47" t="n">
         <f aca="false">D18-E18+F18</f>
         <v>38680.53</v>
       </c>
-      <c r="H18" s="31" t="n">
+      <c r="H18" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="34" t="n">
+        <f aca="false">G18-J18</f>
         <v>38680.53</v>
       </c>
-      <c r="I18" s="39" t="s">
-        <v>36</v>
-      </c>
-      <c r="J18" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="34" t="n">
-        <f aca="false">G18-K18</f>
-        <v>38680.53</v>
-      </c>
+      <c r="AMG18" s="0"/>
       <c r="AMH18" s="0"/>
       <c r="AMI18" s="0"/>
       <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="42"/>
-      <c r="D19" s="43" t="n">
+      <c r="D19" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="47" t="n">
+        <f aca="false">D19-E19+F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="41" t="n">
         <v>7431</v>
       </c>
-      <c r="E19" s="44" t="n">
-        <v>5399.42</v>
-      </c>
-      <c r="F19" s="45" t="n">
-        <v>2005</v>
-      </c>
-      <c r="G19" s="46" t="n">
-        <f aca="false">D19-E19+F19</f>
-        <v>4036.58</v>
-      </c>
-      <c r="H19" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="K19" s="41" t="n">
-        <v>7431</v>
-      </c>
-      <c r="L19" s="34" t="n">
-        <f aca="false">G19-K19</f>
-        <v>-3394.42</v>
-      </c>
+      <c r="K19" s="34" t="n">
+        <f aca="false">G19-J19</f>
+        <v>-7431</v>
+      </c>
+      <c r="AMG19" s="0"/>
       <c r="AMH19" s="0"/>
       <c r="AMI19" s="0"/>
       <c r="AMJ19" s="0"/>
@@ -1751,267 +1728,253 @@
       <c r="A20" s="39"/>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
-      <c r="D20" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="31" t="n">
+      <c r="D20" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="47" t="n">
         <f aca="false">D20-E20+F20</f>
         <v>0</v>
       </c>
-      <c r="H20" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="34" t="n">
-        <f aca="false">G20-K20</f>
-        <v>0</v>
-      </c>
+      <c r="H20" s="39"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="34" t="n">
+        <f aca="false">G20-J20</f>
+        <v>0</v>
+      </c>
+      <c r="AMG20" s="0"/>
       <c r="AMH20" s="0"/>
       <c r="AMI20" s="0"/>
       <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="39"/>
-      <c r="B21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" s="31" t="n">
+      <c r="B21" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="47" t="n">
         <f aca="false">D21-E21+F21</f>
         <v>0</v>
       </c>
-      <c r="H21" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="K21" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34" t="n">
-        <f aca="false">G21-K21</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="39"/>
+      <c r="I21" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="J21" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="34" t="n">
+        <f aca="false">G21-J21</f>
+        <v>0</v>
+      </c>
+      <c r="AMG21" s="0"/>
       <c r="AMH21" s="0"/>
       <c r="AMI21" s="0"/>
       <c r="AMJ21" s="0"/>
     </row>
     <row r="22" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="29" t="n">
+      <c r="B22" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="52"/>
+      <c r="D22" s="45" t="n">
         <v>-118511</v>
       </c>
-      <c r="E22" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="31" t="n">
+      <c r="E22" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="47" t="n">
         <f aca="false">D22-E22+F22</f>
         <v>-118511</v>
       </c>
-      <c r="H22" s="31" t="n">
+      <c r="H22" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="J22" s="18" t="n">
         <v>-118511</v>
       </c>
-      <c r="I22" s="33" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="18" t="n">
-        <v>-118511</v>
-      </c>
-      <c r="L22" s="34" t="n">
-        <f aca="false">G22-K22</f>
-        <v>0</v>
-      </c>
+      <c r="K22" s="34" t="n">
+        <f aca="false">G22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="AMG22" s="0"/>
       <c r="AMH22" s="0"/>
       <c r="AMI22" s="0"/>
       <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="43" t="n">
-        <f aca="false">K23+K26</f>
-        <v>-76367</v>
-      </c>
-      <c r="E23" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" s="46" t="n">
+      <c r="C23" s="53"/>
+      <c r="D23" s="49" t="n">
+        <v>-72365</v>
+      </c>
+      <c r="E23" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="47" t="n">
         <f aca="false">D23-E23+F23</f>
-        <v>-76367</v>
-      </c>
-      <c r="H23" s="46" t="n">
         <v>-72365</v>
       </c>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="18" t="n">
+      <c r="H23" s="54"/>
+      <c r="I23" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="J23" s="18" t="n">
         <f aca="false">-84051+5140-380</f>
         <v>-79291</v>
       </c>
-      <c r="L23" s="34" t="n">
-        <f aca="false">G23-K23</f>
-        <v>2924</v>
-      </c>
+      <c r="K23" s="34" t="n">
+        <f aca="false">G23-J23</f>
+        <v>6926</v>
+      </c>
+      <c r="AMG23" s="0"/>
       <c r="AMH23" s="0"/>
       <c r="AMI23" s="0"/>
       <c r="AMJ23" s="0"/>
     </row>
     <row r="24" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="50"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="31" t="n">
+      <c r="A24" s="55"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="47" t="n">
         <f aca="false">D24-E24+F24</f>
         <v>0</v>
       </c>
-      <c r="H24" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="34" t="n">
-        <f aca="false">G24-K24</f>
-        <v>0</v>
-      </c>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="34" t="n">
+        <f aca="false">G24-J24</f>
+        <v>0</v>
+      </c>
+      <c r="AMG24" s="0"/>
       <c r="AMH24" s="0"/>
       <c r="AMI24" s="0"/>
       <c r="AMJ24" s="0"/>
     </row>
     <row r="25" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="51"/>
-      <c r="B25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="52" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" s="31" t="n">
+      <c r="A25" s="56"/>
+      <c r="B25" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="43"/>
+      <c r="D25" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="47" t="n">
         <f aca="false">D25-E25+F25</f>
         <v>0</v>
       </c>
-      <c r="H25" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" s="33"/>
-      <c r="J25" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="K25" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="34" t="n">
-        <f aca="false">G25-K25</f>
-        <v>0</v>
-      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="J25" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="34" t="n">
+        <f aca="false">G25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="AMG25" s="0"/>
       <c r="AMH25" s="0"/>
       <c r="AMI25" s="0"/>
       <c r="AMJ25" s="0"/>
     </row>
     <row r="26" s="37" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="45" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" s="46" t="n">
+      <c r="B26" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="52"/>
+      <c r="D26" s="45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="45" t="n">
+        <v>5184.41</v>
+      </c>
+      <c r="F26" s="46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="47" t="n">
+        <f aca="false">D26-E26+F26</f>
         <v>-5184.41</v>
       </c>
+      <c r="H26" s="33" t="s">
+        <v>44</v>
+      </c>
       <c r="I26" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="J26" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K26" s="18" t="n">
+        <v>43</v>
+      </c>
+      <c r="J26" s="18" t="n">
         <v>2924</v>
       </c>
-      <c r="L26" s="34" t="n">
-        <f aca="false">G26-K26</f>
-        <v>-2924</v>
-      </c>
+      <c r="K26" s="34" t="n">
+        <f aca="false">G26-J26</f>
+        <v>-8108.41</v>
+      </c>
+      <c r="AMG26" s="0"/>
       <c r="AMH26" s="0"/>
       <c r="AMI26" s="0"/>
       <c r="AMJ26" s="0"/>
     </row>
     <row r="27" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="55"/>
-      <c r="B27" s="56"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="58"/>
       <c r="C27" s="18"/>
       <c r="D27" s="31" t="n">
         <v>0</v>
@@ -2022,251 +1985,245 @@
       <c r="F27" s="30" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="57" t="n">
+      <c r="G27" s="59" t="n">
         <f aca="false">D27+E27-F27</f>
         <v>0</v>
       </c>
-      <c r="H27" s="57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" s="58"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="34" t="n">
-        <f aca="false">G27-K27</f>
-        <v>0</v>
-      </c>
+      <c r="H27" s="60"/>
+      <c r="I27" s="61"/>
+      <c r="J27" s="31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="34" t="n">
+        <f aca="false">G27-J27</f>
+        <v>0</v>
+      </c>
+      <c r="AMG27" s="0"/>
       <c r="AMH27" s="0"/>
       <c r="AMI27" s="0"/>
       <c r="AMJ27" s="0"/>
     </row>
-    <row r="28" s="65" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="60"/>
-      <c r="B28" s="61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62" t="n">
+    <row r="28" s="67" customFormat="true" ht="18.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="62"/>
+      <c r="B28" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="63"/>
+      <c r="D28" s="64" t="n">
         <f aca="false">SUM(D9:D26)</f>
+        <v>379124</v>
+      </c>
+      <c r="E28" s="64" t="n">
+        <f aca="false">SUM(E9:E26)</f>
+        <v>5184.41</v>
+      </c>
+      <c r="F28" s="64" t="n">
+        <f aca="false">SUM(F9:F26)</f>
+        <v>38680.53</v>
+      </c>
+      <c r="G28" s="65" t="n">
+        <f aca="false">SUM(G9:G26)</f>
+        <v>412620.12</v>
+      </c>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="64" t="n">
+        <f aca="false">SUM(J9:J26)</f>
         <v>382553</v>
       </c>
-      <c r="E28" s="62" t="n">
-        <f aca="false">SUM(E9:E26)</f>
-        <v>5399.42</v>
-      </c>
-      <c r="F28" s="62" t="n">
-        <f aca="false">SUM(F9:F26)</f>
-        <v>40685.53</v>
-      </c>
-      <c r="G28" s="63" t="n">
-        <f aca="false">SUM(G9:G26)</f>
-        <v>417839.11</v>
-      </c>
-      <c r="H28" s="63" t="n">
-        <f aca="false">SUM(H9:H26)</f>
-        <v>412620.12</v>
-      </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="60"/>
-      <c r="K28" s="62" t="n">
-        <f aca="false">SUM(K9:K26)</f>
-        <v>382553</v>
-      </c>
-      <c r="L28" s="64" t="n">
-        <f aca="false">SUM(L9:L27)</f>
-        <v>35286.11</v>
-      </c>
+      <c r="K28" s="66" t="n">
+        <f aca="false">SUM(K9:K27)</f>
+        <v>30067.12</v>
+      </c>
+      <c r="AMG28" s="0"/>
       <c r="AMH28" s="0"/>
       <c r="AMI28" s="0"/>
       <c r="AMJ28" s="0"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
-      <c r="D30" s="67" t="s">
+      <c r="B30" s="68"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" s="70" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="71" t="s">
         <v>47</v>
       </c>
-      <c r="E30" s="68" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="70"/>
-      <c r="D31" s="71" t="n">
+      <c r="C31" s="72"/>
+      <c r="D31" s="73" t="n">
         <v>44196</v>
       </c>
-      <c r="E31" s="71" t="n">
+      <c r="E31" s="73" t="n">
         <v>43830</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="72"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="76" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78" t="n">
+      <c r="B33" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="79"/>
+      <c r="D33" s="80" t="n">
         <f aca="false">SUM(G11:G13)</f>
         <v>20000</v>
       </c>
-      <c r="E33" s="78" t="n">
-        <f aca="false">SUM(K11:K13)</f>
+      <c r="E33" s="80" t="n">
+        <f aca="false">SUM(J11:J13)</f>
         <v>20000</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="76" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="78" t="n">
+      <c r="B34" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" s="79"/>
+      <c r="D34" s="80" t="n">
         <f aca="false">SUM(G14:G16)</f>
         <v>550000</v>
       </c>
-      <c r="E34" s="78" t="n">
-        <f aca="false">SUM(K14:K16)</f>
+      <c r="E34" s="80" t="n">
+        <f aca="false">SUM(J14:J16)</f>
         <v>550000</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="78" t="n">
+      <c r="B35" s="78" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" s="79"/>
+      <c r="D35" s="80" t="n">
         <f aca="false">SUM(G17:G24)</f>
-        <v>-152160.89</v>
-      </c>
-      <c r="E35" s="78" t="n">
-        <f aca="false">SUM(K17:K24)</f>
+        <v>-152195.47</v>
+      </c>
+      <c r="E35" s="80" t="n">
+        <f aca="false">SUM(J17:J24)</f>
         <v>-190371</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="78" t="n">
+      <c r="B36" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="79"/>
+      <c r="D36" s="80" t="n">
         <f aca="false">G26</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="78" t="n">
-        <f aca="false">K26</f>
+        <v>-5184.41</v>
+      </c>
+      <c r="E36" s="80" t="n">
+        <f aca="false">J26</f>
         <v>2924</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="82"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="84"/>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="70" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="70"/>
-      <c r="D38" s="83" t="n">
+      <c r="B38" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="72"/>
+      <c r="D38" s="85" t="n">
         <f aca="false">+SUM(D33:D36)</f>
-        <v>417839.11</v>
-      </c>
-      <c r="E38" s="84" t="n">
+        <v>412620.12</v>
+      </c>
+      <c r="E38" s="86" t="n">
         <f aca="false">+SUM(E33:E36)</f>
         <v>382553</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="85" t="s">
+      <c r="A40" s="87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="88"/>
+      <c r="C40" s="88"/>
+      <c r="D40" s="88"/>
+      <c r="E40" s="88"/>
+      <c r="F40" s="88"/>
+      <c r="G40" s="88"/>
+      <c r="H40" s="88"/>
+      <c r="I40" s="89"/>
+      <c r="J40" s="90"/>
+      <c r="K40" s="90"/>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="86"/>
-      <c r="C40" s="86"/>
-      <c r="D40" s="86"/>
-      <c r="E40" s="86"/>
-      <c r="F40" s="86"/>
-      <c r="G40" s="86"/>
-      <c r="H40" s="86"/>
-      <c r="I40" s="86"/>
-      <c r="J40" s="87"/>
-      <c r="K40" s="88"/>
-      <c r="L40" s="88"/>
-    </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="89" t="s">
+      <c r="I41" s="92"/>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="91"/>
+      <c r="I42" s="92"/>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="J41" s="90"/>
-    </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="89"/>
-      <c r="J42" s="90"/>
-    </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="91" t="s">
+      <c r="I43" s="92"/>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="91" t="s">
         <v>52</v>
       </c>
-      <c r="J43" s="90"/>
-    </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="89" t="s">
+      <c r="I44" s="92"/>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="91" t="s">
         <v>53</v>
       </c>
-      <c r="J44" s="90"/>
-    </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="89" t="s">
+      <c r="I45" s="92"/>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="91"/>
+      <c r="I46" s="92"/>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="91"/>
+      <c r="I47" s="92"/>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="J45" s="90"/>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="89"/>
-      <c r="J46" s="90"/>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="89"/>
-      <c r="J47" s="90"/>
-    </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="91" t="s">
+      <c r="I48" s="92"/>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="94" t="s">
         <v>55</v>
-      </c>
-      <c r="J48" s="90"/>
-    </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="92" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:I3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="B4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B5:I5"/>
-    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="J5:K5"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H7:H8"/>
     <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0" right="0" top="0.39375" bottom="0.39375" header="0" footer="0"/>
